--- a/Requirements/Requirements Stack Spreadsheet.xlsx
+++ b/Requirements/Requirements Stack Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/m605m285_home_ku_edu/Documents/581 Projects/Project 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{914648BC-01E5-4CD2-ABC2-E9521E26CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="456" documentId="8_{0E69C571-3FDD-FE40-BBCE-42AB496AAF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38968780-81B2-CB45-8917-39871E41A651}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1914E77B-9825-214D-9EEC-61A4CC2F2213}"/>
+    <workbookView xWindow="-80" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{1914E77B-9825-214D-9EEC-61A4CC2F2213}"/>
   </bookViews>
   <sheets>
     <sheet name="RequirementsStack" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -74,15 +74,6 @@
     <t>Do not allow conflicting courses in one schedule</t>
   </si>
   <si>
-    <t>Display course information for selected courses</t>
-  </si>
-  <si>
-    <t>Display total credit hours selected</t>
-  </si>
-  <si>
-    <t>Allow schedule to be saved, edited, and deleted</t>
-  </si>
-  <si>
     <t>Display tabs for different semester plans</t>
   </si>
   <si>
@@ -105,13 +96,58 @@
   </si>
   <si>
     <t>Deploy databases to Supabase or other cloud-based service</t>
+  </si>
+  <si>
+    <t>Add course names/number to database</t>
+  </si>
+  <si>
+    <t>Add course credit hours to database</t>
+  </si>
+  <si>
+    <t>Add course description to database</t>
+  </si>
+  <si>
+    <t>Add course meeting time options to database</t>
+  </si>
+  <si>
+    <t>Store login information securely</t>
+  </si>
+  <si>
+    <t>Allow schedule to be saved</t>
+  </si>
+  <si>
+    <t>Retrieve saved schedules and allow it to be edited</t>
+  </si>
+  <si>
+    <t>Allow schedule to be deleted</t>
+  </si>
+  <si>
+    <t>Display message if queried course is not offered</t>
+  </si>
+  <si>
+    <t>Display queried course's name</t>
+  </si>
+  <si>
+    <t>Display queried course's description</t>
+  </si>
+  <si>
+    <t>Display queried course's credit hours</t>
+  </si>
+  <si>
+    <t>Allow user to select past schedules</t>
+  </si>
+  <si>
+    <t>Display total credit hours for all selected courses</t>
+  </si>
+  <si>
+    <t>Display message if all offerings of queried course conflict with current schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -178,11 +214,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,6 +254,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -211,6 +283,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,22 +606,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468026A1-99DE-411F-B30E-ACC265B973F6}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="2"/>
+    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -579,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1.2</v>
       </c>
@@ -596,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1.3</v>
       </c>
@@ -613,29 +689,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30.75">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2.1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -647,15 +723,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -664,131 +740,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A11" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A12" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30.75">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
@@ -800,12 +876,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30.75">
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
@@ -817,79 +893,279 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>6.1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30.75">
-      <c r="A19" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3">
         <v>5</v>
       </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+    <sortCondition ref="D2:D30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>